--- a/input/test/matrixscenario_4/input/MatrixModel_13.xlsx
+++ b/input/test/matrixscenario_4/input/MatrixModel_13.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="1240" windowWidth="14500" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="7120" yWindow="1240" windowWidth="17880" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Fitness" sheetId="4" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <t>c</t>
   </si>
   <si>
-    <t>System Dynamics Fitness</t>
-  </si>
-  <si>
     <t>a + b</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>User Equation Fitness</t>
   </si>
 </sst>
 </file>
@@ -229,11 +229,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -637,34 +637,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -672,18 +672,18 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="5" t="s">
-        <v>3</v>
+      <c r="A7" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2">
         <v>101</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>0.5</v>
@@ -727,28 +727,28 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2">
         <v>0.5</v>
@@ -762,10 +762,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2">
         <v>0.25</v>
@@ -786,7 +786,7 @@
         <v>10.4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -801,7 +801,7 @@
         <v>11.6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -813,10 +813,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
@@ -860,20 +860,20 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -881,7 +881,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2">
         <v>0.5</v>
@@ -895,10 +895,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2">
         <v>0.25</v>
@@ -919,7 +919,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -931,10 +931,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2">
@@ -948,10 +948,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2">
         <v>0.5</v>
@@ -993,28 +993,28 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1027,7 +1027,7 @@
         <v>4.5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1041,10 +1041,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2">
@@ -1061,7 +1061,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2">
@@ -1079,10 +1079,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
